--- a/hans_vcsel_mask/layer_definition.xlsx
+++ b/hans_vcsel_mask/layer_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\strerik\SELMA\hans_vcsel_mask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359D36A0-7C3E-4FA0-937E-EDBAB287E94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA90E14-D256-4046-9876-FF1C3B631755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>data_parity</t>
   </si>
@@ -57,12 +57,6 @@
     <t>MS_align</t>
   </si>
   <si>
-    <t>CF_frame</t>
-  </si>
-  <si>
-    <t>DF_frame</t>
-  </si>
-  <si>
     <t>chip</t>
   </si>
   <si>
@@ -88,6 +82,15 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>2. kiss</t>
+  </si>
+  <si>
+    <t>DD_frame</t>
+  </si>
+  <si>
+    <t>DC_frame</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,22 +426,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -449,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -458,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -469,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -478,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -489,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -498,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -509,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -518,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -538,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -558,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,16 +572,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -598,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -609,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -618,67 +621,67 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/hans_vcsel_mask/layer_definition.xlsx
+++ b/hans_vcsel_mask/layer_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\strerik\SELMA\hans_vcsel_mask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA90E14-D256-4046-9876-FF1C3B631755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF5B77-5D3B-4BFB-985B-9076CAF1DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>data_parity</t>
   </si>
@@ -60,12 +60,6 @@
     <t>chip</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>1. TC + ALIGN     (CF)</t>
-  </si>
-  <si>
     <t>a_mark_position</t>
   </si>
   <si>
@@ -84,13 +78,46 @@
     <t>label</t>
   </si>
   <si>
-    <t>2. kiss</t>
-  </si>
-  <si>
     <t>DD_frame</t>
   </si>
   <si>
     <t>DC_frame</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>2. BOTTOM CONTACT  (DC)</t>
+  </si>
+  <si>
+    <t>1. TC + ALIGN (DD)</t>
+  </si>
+  <si>
+    <t>2. TOP MESA (DD)</t>
+  </si>
+  <si>
+    <t>3. SiNx OPEN (DC)</t>
+  </si>
+  <si>
+    <t>4. WITNESS OPEN (DC)</t>
+  </si>
+  <si>
+    <t>6. CONTACT ETCH  (DC)</t>
+  </si>
+  <si>
+    <t>7. CONTACT PADS  (DC)</t>
+  </si>
+  <si>
+    <t>8. BOND PADS  (DC)</t>
+  </si>
+  <si>
+    <t>9. MS ALIGN  (DD)</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
   </si>
 </sst>
 </file>
@@ -411,7 +438,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,27 +448,27 @@
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -452,16 +479,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -472,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -481,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -501,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -512,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -521,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -532,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -541,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,7 +579,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -561,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -572,16 +599,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -601,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,7 +639,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -621,47 +648,47 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,16 +699,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
